--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Tnfrsf11b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Tnfrsf11b</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>1.383921598361778</v>
+        <v>17.37512943665778</v>
       </c>
       <c r="R2">
-        <v>12.455294385256</v>
+        <v>156.37616492992</v>
       </c>
       <c r="S2">
-        <v>0.006466773013828028</v>
+        <v>0.1312424167427961</v>
       </c>
       <c r="T2">
-        <v>0.006466773013828028</v>
+        <v>0.1312424167427962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>28.24526955042577</v>
+        <v>2.150541192426667</v>
       </c>
       <c r="R3">
-        <v>254.207425953832</v>
+        <v>19.35487073184</v>
       </c>
       <c r="S3">
-        <v>0.1319841724511065</v>
+        <v>0.01624403573095347</v>
       </c>
       <c r="T3">
-        <v>0.1319841724511066</v>
+        <v>0.01624403573095347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>4.036409657309999</v>
+        <v>0.1909862904888889</v>
       </c>
       <c r="R4">
-        <v>36.32768691579</v>
+        <v>1.7188766144</v>
       </c>
       <c r="S4">
-        <v>0.0188612888732614</v>
+        <v>0.001442608092209125</v>
       </c>
       <c r="T4">
-        <v>0.0188612888732614</v>
+        <v>0.001442608092209125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H5">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I5">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J5">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>2.208921198031111</v>
+        <v>45.08317142235111</v>
       </c>
       <c r="R5">
-        <v>19.88029078228</v>
+        <v>405.7485428011601</v>
       </c>
       <c r="S5">
-        <v>0.01032182170580306</v>
+        <v>0.3405341176576158</v>
       </c>
       <c r="T5">
-        <v>0.01032182170580306</v>
+        <v>0.3405341176576158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>45.0831714223511</v>
+        <v>5.579999710646668</v>
       </c>
       <c r="R6">
-        <v>405.7485428011599</v>
+        <v>50.21999739582001</v>
       </c>
       <c r="S6">
-        <v>0.210664127705614</v>
+        <v>0.04214832759198374</v>
       </c>
       <c r="T6">
-        <v>0.210664127705614</v>
+        <v>0.04214832759198374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>6.442641596549999</v>
+        <v>0.4955512823555556</v>
       </c>
       <c r="R7">
-        <v>57.98377436894999</v>
+        <v>4.4599615412</v>
       </c>
       <c r="S7">
-        <v>0.03010510195350249</v>
+        <v>0.00374312882982731</v>
       </c>
       <c r="T7">
-        <v>0.03010510195350249</v>
+        <v>0.003743128829827309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H8">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I8">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J8">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>5.203938087464001</v>
+        <v>54.20885174793688</v>
       </c>
       <c r="R8">
-        <v>46.83544278717601</v>
+        <v>487.879665731432</v>
       </c>
       <c r="S8">
-        <v>0.02431690236605927</v>
+        <v>0.4094646165478988</v>
       </c>
       <c r="T8">
-        <v>0.02431690236605927</v>
+        <v>0.4094646165478988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H9">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I9">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J9">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>106.210231980008</v>
+        <v>6.709496415729334</v>
       </c>
       <c r="R9">
-        <v>955.892087820072</v>
+        <v>60.38546774156401</v>
       </c>
       <c r="S9">
-        <v>0.4962979570329537</v>
+        <v>0.05067994042505561</v>
       </c>
       <c r="T9">
-        <v>0.4962979570329537</v>
+        <v>0.05067994042505562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,232 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>15.17804619651</v>
+        <v>0.5958601658044445</v>
       </c>
       <c r="R10">
-        <v>136.60241576859</v>
+        <v>5.36274149224</v>
       </c>
       <c r="S10">
-        <v>0.07092380064189686</v>
+        <v>0.004500808381660103</v>
       </c>
       <c r="T10">
-        <v>0.07092380064189686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004706</v>
-      </c>
-      <c r="H11">
-        <v>0.014118</v>
-      </c>
-      <c r="I11">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J11">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1085253333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.325576</v>
-      </c>
-      <c r="O11">
-        <v>0.0411078835732859</v>
-      </c>
-      <c r="P11">
-        <v>0.0411078835732859</v>
-      </c>
-      <c r="Q11">
-        <v>0.0005107202186666668</v>
-      </c>
-      <c r="R11">
-        <v>0.004596481968000001</v>
-      </c>
-      <c r="S11">
-        <v>2.386487595539767E-06</v>
-      </c>
-      <c r="T11">
-        <v>2.386487595539766E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.004706</v>
-      </c>
-      <c r="H12">
-        <v>0.014118</v>
-      </c>
-      <c r="I12">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J12">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.214957333333333</v>
-      </c>
-      <c r="N12">
-        <v>6.644871999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.8389949644181</v>
-      </c>
-      <c r="P12">
-        <v>0.8389949644181001</v>
-      </c>
-      <c r="Q12">
-        <v>0.01042358921066667</v>
-      </c>
-      <c r="R12">
-        <v>0.093812302896</v>
-      </c>
-      <c r="S12">
-        <v>4.870722842577314E-05</v>
-      </c>
-      <c r="T12">
-        <v>4.870722842577314E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.004706</v>
-      </c>
-      <c r="H13">
-        <v>0.014118</v>
-      </c>
-      <c r="I13">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J13">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.31653</v>
-      </c>
-      <c r="N13">
-        <v>0.9495899999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1198971520086141</v>
-      </c>
-      <c r="P13">
-        <v>0.1198971520086141</v>
-      </c>
-      <c r="Q13">
-        <v>0.00148959018</v>
-      </c>
-      <c r="R13">
-        <v>0.01340631162</v>
-      </c>
-      <c r="S13">
-        <v>6.960539953339947E-06</v>
-      </c>
-      <c r="T13">
-        <v>6.960539953339946E-06</v>
+        <v>0.004500808381660103</v>
       </c>
     </row>
   </sheetData>
